--- a/examples/trainData/sample_dataset-DD-ST-ASCII-DATE-CON.xlsx
+++ b/examples/trainData/sample_dataset-DD-ST-ASCII-DATE-CON.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,72 +436,82 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ROWID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>PID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AgeMonths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BMICatUnder20yrs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BMI_WHO</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Date of Birth</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Date of First Visit</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date of Diagnosis</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Date of Treatment</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Total Care Cost</t>
         </is>
       </c>
     </row>
@@ -509,925 +519,1307 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>David Johnson</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>194</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>176.1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25.6</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>OverWeight</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Sun, 11 January 09</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Sat, 13 April 19</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Fri, 19 April 19</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>$2200.50</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Anna Muller</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>28</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>339</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>167.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>61</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>21.74</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Thu, 05 December 96</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Mon, 11 February 19</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Wed, 20 February 19</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>€1360.42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Òscar Smith</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>200</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>154.7</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>51.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>21.39</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>NormWeight</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Fri, 18 July 08</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Sun, 29 March 20</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Fri, 03 April 20</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>$2050.10</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Maria Williams</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>32</v>
-      </c>
       <c r="E5" t="n">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
+        <v>397</v>
+      </c>
+      <c r="G5" t="n">
         <v>172.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>60.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>20.3</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Thu, 23 July 92</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Thu, 13 February 92</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Mon, 15 July 19</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Tue, 30 July 19</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Wed, 08 April 20</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$2260.76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Peter Phillips</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>220</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>160.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>28.29</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>OverWeight</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Tue, 07 November 06</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Tue, 26 April 22</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Tue, 17 May 22</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>$1705.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Jose Silva</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>233</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>173.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>73.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>24.54</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>NormWeight</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Sun, 09 October 05</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Thu, 28 July 22</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Mon, 01 August 22</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Fri, 08 April 22</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>$2485.76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Marie Fischer</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>29</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>354</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>161.8</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>69.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>26.62</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Mon, 11 September 95</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Fri, 19 June 20</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Sun, 28 June 20</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Thu, 07 May 20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>$2900.70</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Bjorn Lopez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>37</v>
       </c>
-      <c r="E9" t="n">
-        <v>451</v>
-      </c>
       <c r="F9" t="n">
+        <v>455</v>
+      </c>
+      <c r="G9" t="n">
         <v>161.6</v>
       </c>
-      <c r="G9" t="n">
-        <v>57.2</v>
-      </c>
       <c r="H9" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>49.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Thu, 06 August 87</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>Sun, 12 April 87</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>Thu, 29 October 20</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Thu, 05 November 20</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Tue, 11 August 20</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>$2660.33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Soren Hansen</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>26</v>
       </c>
-      <c r="E10" t="n">
-        <v>318</v>
-      </c>
       <c r="F10" t="n">
+        <v>319</v>
+      </c>
+      <c r="G10" t="n">
         <v>180.1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>86.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>26.61</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Tue, 25 August 98</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Wed, 05 August 98</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>Wed, 12 May 21</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Tue, 01 June 21</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Mon, 06 December 21</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>$1860.10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Nia Renee Miller</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>18</v>
       </c>
-      <c r="E11" t="n">
-        <v>221</v>
-      </c>
       <c r="F11" t="n">
+        <v>222</v>
+      </c>
+      <c r="G11" t="n">
         <v>183.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>85.7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>25.45</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>NormWeight</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Wed, 27 September 06</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Sun, 10 September 06</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Tue, 19 February 19</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Sat, 02 March 19</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Thu, 03 October 19</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>$2306.40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>James Marie</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>35</v>
-      </c>
       <c r="E12" t="n">
-        <v>431</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
+        <v>432</v>
+      </c>
+      <c r="G12" t="n">
         <v>190.1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>76.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>21.11</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Tue, 21 March 89</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>Sat, 18 March 89</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>Fri, 30 April 21</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Fri, 07 May 21</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>$2570.96</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Charlotte Carter</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>272</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>176.3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>75</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>24.13</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Thu, 11 July 02</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Mon, 28 February 22</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Sat, 12 March 22</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>$1560.60</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Laura San Martin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>39</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>476</v>
       </c>
-      <c r="F14" t="n">
-        <v>168.8</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>63.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>18.5_to_24.9</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>Sun, 07 July 85</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Wed, 15 December 21</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Tue, 04 January 22</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Fri, 01 July 22</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>$1977.64</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Elisabeth Louise</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>220</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>183</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>68.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>20.36</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>NormWeight</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Tue, 07 November 06</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Fri, 29 January 21</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Mon, 08 February 21</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>$1250.20</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Tom Davis</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>234</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>178.4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>68.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>21.52</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>NormWeight</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>18.5_to_24.9</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Fri, 16 September 05</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Fri, 02 September 22</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Sat, 17 September 22</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>$1782.70</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Emile Noel</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>36</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>438</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>182.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>25.31</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>25.0_to_29.9</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Sat, 17 September 88</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Fri, 01 April 22</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Tue, 12 April 22</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>$2610.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Òrla Isla</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" t="n">
+        <v>210</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Tue, 04 September 07</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Sun, 04 July 21</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Sun, 01 August 21</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Wed, 08 December 21</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>$2150.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Amelia Grant</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="n">
+        <v>347</v>
+      </c>
+      <c r="G19" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Sat, 20 April 96</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Mon, 12 September 22</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Mon, 19 September 22</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>€1600.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>David Lloyd Evans</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>39</v>
+      </c>
+      <c r="F20" t="n">
+        <v>469</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-96.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>30.0_plus</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Tue, 11 February 86</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sun, 16 October 22</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Wed, 02 November 22</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Fri, 11 November 22</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>$1506.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vittoria Rossi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>249</v>
+      </c>
+      <c r="G21" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-49.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-19.89</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>12.0_18.5</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Tue, 15 June 04</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Thu, 03 November 22</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Fri, 25 November 22</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Tue, 12 April 22</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>€2053.08</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/trainData/sample_dataset-DD-ST-ASCII-DATE-CON.xlsx
+++ b/examples/trainData/sample_dataset-DD-ST-ASCII-DATE-CON.xlsx
@@ -536,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G2" t="n">
         <v>176.1</v>
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G3" t="n">
         <v>167.5</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" t="n">
         <v>154.7</v>
@@ -728,7 +728,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G5" t="n">
         <v>172.5</v>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G6" t="n">
         <v>160.2</v>
@@ -860,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G7" t="n">
         <v>173.4</v>
@@ -928,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G8" t="n">
         <v>161.8</v>
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G9" t="n">
         <v>161.6</v>
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G10" t="n">
         <v>180.1</v>
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G11" t="n">
         <v>183.5</v>
@@ -1200,7 +1200,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G12" t="n">
         <v>190.1</v>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G13" t="n">
         <v>176.3</v>
@@ -1328,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
@@ -1392,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G15" t="n">
         <v>183</v>
@@ -1456,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" t="n">
         <v>178.4</v>
@@ -1520,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G17" t="n">
         <v>182.3</v>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G19" t="n">
         <v>149.7</v>
@@ -1706,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G20" t="n">
         <v>-96.2</v>
@@ -1774,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G21" t="n">
         <v>158.4</v>
